--- a/balanco/balanco_template.xlsx
+++ b/balanco/balanco_template.xlsx
@@ -76,7 +76,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="16.0"/>
       <color rgb="FFFFC000"/>
       <name val="Open Sans"/>
     </font>
